--- a/worksCited.xlsx
+++ b/worksCited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annav\Documents\GitHub\seniordesign_protoype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thien Nguyen\OneDrive - Knights - University of Central Florida\School Crap\Engineering\Senior Design 1\seniordesign_protoype\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{7695B53E-E265-4085-8BA2-B1E2623D36E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79C7B717-A5FF-447C-BD33-B18B5970030C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{79C7B717-A5FF-447C-BD33-B18B5970030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,27 +637,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,18 +976,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9E6B2B-865F-4FCB-9A19-A812D78FEAA8}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>4</v>
       </c>
@@ -1031,68 +1031,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>8</v>
       </c>
@@ -1136,12 +1136,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>9</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>10</v>
       </c>
@@ -1163,12 +1163,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>11</v>
       </c>
@@ -1179,12 +1179,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>12</v>
       </c>
@@ -1195,12 +1195,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>13</v>
       </c>
@@ -1211,12 +1211,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>14</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>15</v>
       </c>
@@ -1238,25 +1238,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+    <row r="30" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>16</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>17</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>18</v>
       </c>
@@ -1278,14 +1278,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>19</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>20</v>
       </c>
@@ -1307,42 +1307,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>21</v>
       </c>
@@ -1353,21 +1353,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>22</v>
       </c>
@@ -1378,25 +1378,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>23</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>24</v>
       </c>
@@ -1407,29 +1407,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>25</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>26</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>27</v>
       </c>
@@ -1440,64 +1440,64 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="22">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
         <v>28</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -1507,49 +1507,49 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
       <c r="B61" s="17"/>
       <c r="C61" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
       <c r="B62" s="17"/>
       <c r="C62" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
       <c r="B63" s="17"/>
       <c r="C63" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
       <c r="B64" s="17"/>
       <c r="C64" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
       <c r="B65" s="17"/>
       <c r="C65" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
       <c r="B66" s="17"/>
       <c r="C66" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>29</v>
       </c>
@@ -1560,35 +1560,35 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>30</v>
       </c>
@@ -1599,77 +1599,77 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>31</v>
       </c>
@@ -1680,49 +1680,49 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>32</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>33</v>
       </c>
@@ -1744,14 +1744,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>34</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>35</v>
       </c>
@@ -1773,35 +1773,35 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>36</v>
       </c>
@@ -1812,46 +1812,46 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>37</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>38</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>39</v>
       </c>
@@ -1873,47 +1873,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>40</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="16" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A94:A98"/>
     <mergeCell ref="B94:B98"/>
     <mergeCell ref="B99:B102"/>
     <mergeCell ref="A99:A102"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8E4C49F8-2CC8-462E-8E7E-494BFEEA41F4}"/>

--- a/worksCited.xlsx
+++ b/worksCited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thien Nguyen\OneDrive - Knights - University of Central Florida\School Crap\Engineering\Senior Design 1\seniordesign_protoype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annav\Documents\GitHub\seniordesign_protoype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7695B53E-E265-4085-8BA2-B1E2623D36E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CEEBB8-FFDB-4494-9D50-62931D36B3CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{79C7B717-A5FF-447C-BD33-B18B5970030C}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{79C7B717-A5FF-447C-BD33-B18B5970030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -484,109 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,69 +503,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,944 +851,944 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9E6B2B-865F-4FCB-9A19-A812D78FEAA8}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.453125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>12</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>13</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>14</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>15</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>16</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="14" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>17</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
         <v>18</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="14" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>19</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
         <v>20</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="14" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="14" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="14" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
         <v>21</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="14" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="14" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
         <v>22</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="14" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
         <v>23</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
         <v>24</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
         <v>25</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
         <v>26</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
         <v>27</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="14" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="14" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="14" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="14" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="14" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="14" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="14" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="14" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="10">
         <v>28</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="14" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="14" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="14" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="10"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="14" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="14" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="14" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
         <v>29</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="15" t="s">
+    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="15" t="s">
+    <row r="69" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="15" t="s">
+    <row r="70" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="15" t="s">
+    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
         <v>30</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="14" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="14" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="14" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="14" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="14" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="14" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="14" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="14" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="14" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="14" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
         <v>31</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="13" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="13" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="13" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="13" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="13" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="13" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="8">
         <v>32</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="7">
         <v>33</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="13" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="8">
         <v>34</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="7">
         <v>35</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="14" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="14" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="14" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="14" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="7">
         <v>36</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="13" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="13" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="13" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="7">
         <v>37</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="14" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="8">
         <v>38</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="8">
         <v>39</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="8">
         <v>40</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="9" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A103:A104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8E4C49F8-2CC8-462E-8E7E-494BFEEA41F4}"/>
